--- a/Hardware/Assembly/PCBWay_files/BOM_PCBWAY.xlsx
+++ b/Hardware/Assembly/PCBWay_files/BOM_PCBWAY.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/louisregnacq/Dropbox/Work/BioZ/BIMMS_git/Hardware/Assembly/PCBWay_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/louisregnacq/Dropbox/Work/BioZ/BIMMS/Hardware/Assembly/PCBWay_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A339BD99-BEA1-4F40-87A2-35D339BD9BD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE20A416-1EBF-734C-A7F0-CDBEE0938570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28120" windowHeight="12540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11800" yWindow="3420" windowWidth="34760" windowHeight="19360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,11 +18,20 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="159">
   <si>
     <t>xxxx xxxx xxxxx xxPCS BOM  (Sample Bill of Materials)</t>
   </si>
@@ -54,9 +63,6 @@
     <t>Your Instructions / Notes</t>
   </si>
   <si>
-    <t>Q17,Q16</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nexperia </t>
   </si>
   <si>
@@ -378,9 +384,6 @@
     <t>R56</t>
   </si>
   <si>
-    <t>RES 5K6 OHM 1/8W 1% 0603 SMD</t>
-  </si>
-  <si>
     <t>R43,R42,R36,R34</t>
   </si>
   <si>
@@ -502,6 +505,9 @@
   </si>
   <si>
     <t>STM32F103R6T6A</t>
+  </si>
+  <si>
+    <t>Q26,Q27</t>
   </si>
 </sst>
 </file>
@@ -709,12 +715,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -751,6 +751,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1109,8 +1115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:S70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="69" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1130,25 +1136,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:19" ht="19.5" customHeight="1">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="D2" s="16" t="s">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="D2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
     </row>
     <row r="4" spans="1:19">
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
     </row>
     <row r="6" spans="1:19" ht="28.5" customHeight="1">
       <c r="A6" s="5" t="s">
@@ -1188,31 +1194,31 @@
       <c r="S6" s="13"/>
     </row>
     <row r="7" spans="1:19" ht="16">
-      <c r="A7" s="17">
+      <c r="A7" s="15">
         <v>1</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="C7" s="15">
+        <v>2</v>
+      </c>
+      <c r="D7" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="17">
-        <v>2</v>
-      </c>
-      <c r="D7" s="17" t="s">
+      <c r="E7" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="F7" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="G7" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="18"/>
+      <c r="H7" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="16"/>
       <c r="L7" s="12"/>
       <c r="M7" s="14"/>
       <c r="N7" s="14"/>
@@ -1223,32 +1229,32 @@
       <c r="S7" s="13"/>
     </row>
     <row r="8" spans="1:19" s="1" customFormat="1" ht="16">
-      <c r="A8" s="17">
+      <c r="A8" s="15">
         <f>1+A7</f>
         <v>2</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="15">
+        <v>1</v>
+      </c>
+      <c r="D8" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="17">
-        <v>1</v>
-      </c>
-      <c r="D8" s="17" t="s">
+      <c r="E8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="F8" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="G8" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="18"/>
+      <c r="H8" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="16"/>
       <c r="K8" s="3"/>
       <c r="L8" s="12"/>
       <c r="M8" s="14"/>
@@ -1260,32 +1266,32 @@
       <c r="S8" s="13"/>
     </row>
     <row r="9" spans="1:19" ht="16">
-      <c r="A9" s="17">
+      <c r="A9" s="15">
         <f t="shared" ref="A9:A52" si="0">1+A8</f>
         <v>3</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="15">
+        <v>1</v>
+      </c>
+      <c r="D9" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="17">
-        <v>1</v>
-      </c>
-      <c r="D9" s="17" t="s">
+      <c r="E9" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="F9" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="G9" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="18"/>
+      <c r="H9" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="16"/>
       <c r="L9" s="12"/>
       <c r="M9" s="14"/>
       <c r="N9" s="14"/>
@@ -1296,32 +1302,32 @@
       <c r="S9" s="13"/>
     </row>
     <row r="10" spans="1:19" ht="16">
-      <c r="A10" s="17">
+      <c r="A10" s="15">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="15">
+        <v>1</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="17">
-        <v>1</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="17" t="s">
+      <c r="F10" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="18"/>
+      <c r="G10" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="16"/>
       <c r="L10" s="12"/>
       <c r="M10" s="14"/>
       <c r="N10" s="14"/>
@@ -1332,32 +1338,32 @@
       <c r="S10" s="13"/>
     </row>
     <row r="11" spans="1:19" ht="16">
-      <c r="A11" s="17">
+      <c r="A11" s="15">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="15">
+        <v>4</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="17">
-        <v>4</v>
-      </c>
-      <c r="D11" s="17" t="s">
+      <c r="E11" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="F11" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="G11" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" s="18"/>
+      <c r="H11" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="16"/>
       <c r="L11" s="12"/>
       <c r="M11" s="14"/>
       <c r="N11" s="14"/>
@@ -1368,32 +1374,32 @@
       <c r="S11" s="13"/>
     </row>
     <row r="12" spans="1:19" ht="16">
-      <c r="A12" s="17">
+      <c r="A12" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="15">
+        <v>23</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="17">
-        <v>23</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="17" t="s">
+      <c r="F12" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="G12" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="H12" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" s="18"/>
+      <c r="H12" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="16"/>
       <c r="K12" s="2"/>
       <c r="L12" s="12"/>
       <c r="M12" s="14"/>
@@ -1405,32 +1411,32 @@
       <c r="S12" s="13"/>
     </row>
     <row r="13" spans="1:19" ht="16">
-      <c r="A13" s="17">
+      <c r="A13" s="15">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B13" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="17">
+      <c r="B13" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="15">
         <v>5</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" s="17" t="s">
+      <c r="G13" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="G13" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="H13" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" s="18"/>
+      <c r="H13" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="16"/>
       <c r="L13" s="12"/>
       <c r="M13" s="14"/>
       <c r="N13" s="14"/>
@@ -1441,32 +1447,32 @@
       <c r="S13" s="13"/>
     </row>
     <row r="14" spans="1:19" ht="16">
-      <c r="A14" s="17">
+      <c r="A14" s="15">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="15">
+        <v>6</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="17">
-        <v>6</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="G14" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="H14" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" s="18"/>
+      <c r="G14" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="16"/>
       <c r="L14" s="12"/>
       <c r="M14" s="14"/>
       <c r="N14" s="14"/>
@@ -1477,32 +1483,32 @@
       <c r="S14" s="13"/>
     </row>
     <row r="15" spans="1:19" ht="16">
-      <c r="A15" s="17">
+      <c r="A15" s="15">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="15">
+        <v>23</v>
+      </c>
+      <c r="D15" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="17">
-        <v>23</v>
-      </c>
-      <c r="D15" s="17" t="s">
+      <c r="E15" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="F15" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="20" t="s">
+      <c r="G15" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="G15" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="H15" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I15" s="18"/>
+      <c r="H15" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="16"/>
       <c r="L15" s="12"/>
       <c r="M15" s="14"/>
       <c r="N15" s="14"/>
@@ -1513,32 +1519,32 @@
       <c r="S15" s="13"/>
     </row>
     <row r="16" spans="1:19" s="1" customFormat="1" ht="16">
-      <c r="A16" s="17">
+      <c r="A16" s="15">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="15">
+        <v>24</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="17">
-        <v>24</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="G16" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="H16" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16" s="18"/>
+      <c r="G16" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="16"/>
       <c r="K16" s="3"/>
       <c r="L16" s="12"/>
       <c r="M16" s="14"/>
@@ -1550,94 +1556,94 @@
       <c r="S16" s="13"/>
     </row>
     <row r="17" spans="1:19" ht="16">
-      <c r="A17" s="17">
+      <c r="A17" s="15">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="15">
+        <v>4</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="17">
-        <v>4</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="H17" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I17" s="18"/>
+      <c r="G17" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="16"/>
       <c r="Q17" s="13"/>
       <c r="R17" s="13"/>
       <c r="S17" s="13"/>
     </row>
     <row r="18" spans="1:19" ht="16">
-      <c r="A18" s="17">
+      <c r="A18" s="15">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="15">
+        <v>36</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="17">
-        <v>36</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F18" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="G18" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="H18" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I18" s="18"/>
+      <c r="G18" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="16"/>
       <c r="Q18" s="13"/>
       <c r="R18" s="13"/>
       <c r="S18" s="13"/>
     </row>
     <row r="19" spans="1:19" ht="16">
-      <c r="A19" s="17">
+      <c r="A19" s="15">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="15">
+        <v>12</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="17">
-        <v>12</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F19" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="G19" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="H19" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I19" s="18"/>
+      <c r="G19" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="16"/>
       <c r="L19" s="12"/>
       <c r="M19" s="14"/>
       <c r="N19" s="14"/>
@@ -1648,63 +1654,63 @@
       <c r="S19" s="13"/>
     </row>
     <row r="20" spans="1:19" ht="16">
-      <c r="A20" s="17">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B20" s="17" t="s">
+      <c r="A20" s="15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="15">
+        <v>23</v>
+      </c>
+      <c r="D20" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="17">
-        <v>23</v>
-      </c>
-      <c r="D20" s="17" t="s">
+      <c r="E20" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="E20" s="17" t="s">
+      <c r="F20" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="F20" s="17" t="s">
+      <c r="G20" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="G20" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="H20" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I20" s="18"/>
+      <c r="H20" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" s="16"/>
       <c r="Q20" s="13"/>
       <c r="R20" s="13"/>
       <c r="S20" s="13"/>
     </row>
     <row r="21" spans="1:19" ht="16">
-      <c r="A21" s="17">
+      <c r="A21" s="15">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="15">
+        <v>12</v>
+      </c>
+      <c r="D21" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="17">
-        <v>12</v>
-      </c>
-      <c r="D21" s="17" t="s">
+      <c r="E21" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="E21" s="17" t="s">
+      <c r="F21" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="F21" s="17" t="s">
+      <c r="G21" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="G21" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="H21" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I21" s="21"/>
+      <c r="H21" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" s="19"/>
       <c r="L21" s="12"/>
       <c r="M21" s="14"/>
       <c r="N21" s="14"/>
@@ -1715,32 +1721,32 @@
       <c r="S21" s="13"/>
     </row>
     <row r="22" spans="1:19" ht="16">
-      <c r="A22" s="17">
+      <c r="A22" s="15">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="15">
+        <v>33</v>
+      </c>
+      <c r="D22" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="17">
-        <v>33</v>
-      </c>
-      <c r="D22" s="17" t="s">
+      <c r="E22" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="E22" s="17" t="s">
+      <c r="F22" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="F22" s="17" t="s">
+      <c r="G22" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="G22" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="H22" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I22" s="22"/>
+      <c r="H22" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" s="20"/>
       <c r="L22" s="12"/>
       <c r="M22" s="14"/>
       <c r="N22" s="14"/>
@@ -1751,32 +1757,32 @@
       <c r="S22" s="13"/>
     </row>
     <row r="23" spans="1:19" ht="16">
-      <c r="A23" s="17">
+      <c r="A23" s="15">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="15">
+        <v>1</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="17">
-        <v>1</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F23" s="17" t="s">
+      <c r="G23" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="G23" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="H23" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I23" s="22"/>
+      <c r="H23" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" s="20"/>
       <c r="L23" s="12"/>
       <c r="M23" s="14"/>
       <c r="N23" s="14"/>
@@ -1787,32 +1793,32 @@
       <c r="S23" s="13"/>
     </row>
     <row r="24" spans="1:19" ht="16">
-      <c r="A24" s="17">
+      <c r="A24" s="15">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="15">
+        <v>51</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="C24" s="17">
-        <v>51</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E24" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F24" s="17" t="s">
+      <c r="G24" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="G24" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="H24" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I24" s="22"/>
+      <c r="H24" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" s="20"/>
       <c r="L24" s="12"/>
       <c r="M24" s="14"/>
       <c r="N24" s="14"/>
@@ -1823,63 +1829,63 @@
       <c r="S24" s="13"/>
     </row>
     <row r="25" spans="1:19" ht="16">
-      <c r="A25" s="17">
+      <c r="A25" s="15">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="15">
+        <v>8</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="C25" s="17">
-        <v>8</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F25" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="G25" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="H25" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I25" s="23"/>
+      <c r="G25" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="H25" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" s="21"/>
       <c r="Q25" s="13"/>
       <c r="R25" s="13"/>
       <c r="S25" s="13"/>
     </row>
     <row r="26" spans="1:19" s="2" customFormat="1" ht="16">
-      <c r="A26" s="17">
+      <c r="A26" s="15">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="15">
+        <v>3</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="C26" s="17">
-        <v>3</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E26" s="17" t="s">
+      <c r="F26" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="F26" s="17" t="s">
+      <c r="G26" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="G26" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="H26" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I26" s="22"/>
+      <c r="H26" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" s="20"/>
       <c r="K26" s="3"/>
       <c r="L26" s="12"/>
       <c r="M26" s="14"/>
@@ -1891,32 +1897,32 @@
       <c r="S26" s="13"/>
     </row>
     <row r="27" spans="1:19" ht="16">
-      <c r="A27" s="17">
+      <c r="A27" s="15">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="15">
+        <v>3</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="C27" s="17">
-        <v>3</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E27" s="17" t="s">
+      <c r="F27" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="F27" s="17" t="s">
+      <c r="G27" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="G27" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="H27" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I27" s="22"/>
+      <c r="H27" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" s="20"/>
       <c r="L27" s="12"/>
       <c r="M27" s="14"/>
       <c r="N27" s="14"/>
@@ -1927,32 +1933,32 @@
       <c r="S27" s="13"/>
     </row>
     <row r="28" spans="1:19" ht="16">
-      <c r="A28" s="17">
+      <c r="A28" s="15">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" s="15">
+        <v>1</v>
+      </c>
+      <c r="D28" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="C28" s="17">
-        <v>1</v>
-      </c>
-      <c r="D28" s="17" t="s">
+      <c r="E28" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="E28" s="17" t="s">
+      <c r="F28" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="F28" s="17" t="s">
+      <c r="G28" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="G28" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="H28" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I28" s="22"/>
+      <c r="H28" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" s="20"/>
       <c r="L28" s="12"/>
       <c r="M28" s="14"/>
       <c r="N28" s="14"/>
@@ -1963,31 +1969,31 @@
       <c r="S28" s="13"/>
     </row>
     <row r="29" spans="1:19" ht="16">
-      <c r="A29" s="24">
+      <c r="A29" s="22">
         <v>23</v>
       </c>
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" s="22">
+        <v>1</v>
+      </c>
+      <c r="D29" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="C29" s="24">
-        <v>1</v>
-      </c>
-      <c r="D29" s="24" t="s">
+      <c r="E29" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="F29" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="E29" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="F29" s="24" t="s">
+      <c r="G29" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="G29" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="H29" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="I29" s="26"/>
+      <c r="H29" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="I29" s="24"/>
       <c r="L29" s="12"/>
       <c r="M29" s="14"/>
       <c r="N29" s="14"/>
@@ -1998,32 +2004,32 @@
       <c r="S29" s="13"/>
     </row>
     <row r="30" spans="1:19" ht="16">
-      <c r="A30" s="17">
+      <c r="A30" s="15">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C30" s="15">
+        <v>1</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="C30" s="17">
-        <v>1</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E30" s="17" t="s">
+      <c r="F30" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="F30" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="G30" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="H30" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I30" s="22"/>
+      <c r="G30" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H30" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" s="20"/>
       <c r="L30" s="12"/>
       <c r="M30" s="14"/>
       <c r="N30" s="14"/>
@@ -2034,32 +2040,32 @@
       <c r="S30" s="13"/>
     </row>
     <row r="31" spans="1:19" ht="16">
-      <c r="A31" s="17">
+      <c r="A31" s="15">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C31" s="15">
+        <v>1</v>
+      </c>
+      <c r="D31" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="C31" s="17">
-        <v>1</v>
-      </c>
-      <c r="D31" s="17" t="s">
+      <c r="E31" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="E31" s="17" t="s">
+      <c r="F31" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="F31" s="17" t="s">
+      <c r="G31" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="G31" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="H31" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I31" s="22"/>
+      <c r="H31" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I31" s="20"/>
       <c r="L31" s="12"/>
       <c r="M31" s="14"/>
       <c r="N31" s="14"/>
@@ -2070,32 +2076,32 @@
       <c r="S31" s="13"/>
     </row>
     <row r="32" spans="1:19" ht="16">
-      <c r="A32" s="17">
+      <c r="A32" s="15">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C32" s="15">
+        <v>3</v>
+      </c>
+      <c r="D32" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="C32" s="17">
-        <v>3</v>
-      </c>
-      <c r="D32" s="17" t="s">
+      <c r="E32" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="E32" s="17" t="s">
+      <c r="F32" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="F32" s="17" t="s">
+      <c r="G32" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="G32" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="H32" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I32" s="22"/>
+      <c r="H32" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I32" s="20"/>
       <c r="L32" s="12"/>
       <c r="M32" s="14"/>
       <c r="N32" s="14"/>
@@ -2106,32 +2112,32 @@
       <c r="S32" s="13"/>
     </row>
     <row r="33" spans="1:19" ht="16">
-      <c r="A33" s="17">
+      <c r="A33" s="15">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33" s="15">
+        <v>5</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F33" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="C33" s="17">
-        <v>5</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E33" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F33" s="17" t="s">
+      <c r="G33" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="G33" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="H33" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I33" s="22"/>
+      <c r="H33" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I33" s="20"/>
       <c r="L33" s="12"/>
       <c r="M33" s="14"/>
       <c r="N33" s="14"/>
@@ -2142,32 +2148,32 @@
       <c r="S33" s="13"/>
     </row>
     <row r="34" spans="1:19" ht="16">
-      <c r="A34" s="17">
+      <c r="A34" s="15">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="C34" s="15">
+        <v>1</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F34" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="C34" s="17">
-        <v>1</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E34" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F34" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="G34" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="H34" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I34" s="22"/>
+      <c r="G34" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="H34" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I34" s="20"/>
       <c r="L34" s="12"/>
       <c r="M34" s="14"/>
       <c r="N34" s="14"/>
@@ -2178,32 +2184,32 @@
       <c r="S34" s="13"/>
     </row>
     <row r="35" spans="1:19" ht="16">
-      <c r="A35" s="17">
+      <c r="A35" s="15">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C35" s="15">
+        <v>1</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F35" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="C35" s="17">
-        <v>1</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E35" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F35" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="G35" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="H35" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I35" s="22"/>
+      <c r="G35" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="H35" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I35" s="20"/>
       <c r="L35" s="12"/>
       <c r="M35" s="14"/>
       <c r="N35" s="14"/>
@@ -2214,526 +2220,526 @@
       <c r="S35" s="13"/>
     </row>
     <row r="36" spans="1:19" ht="16">
-      <c r="A36" s="17">
+      <c r="A36" s="15">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B36" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="C36" s="17">
+      <c r="B36" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="C36" s="15">
         <v>1</v>
       </c>
-      <c r="D36" s="17" t="s">
+      <c r="D36" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F36" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="E36" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F36" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="G36" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="H36" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I36" s="22"/>
+      <c r="G36" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="H36" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I36" s="20"/>
       <c r="Q36" s="13"/>
       <c r="R36" s="13"/>
       <c r="S36" s="13"/>
     </row>
     <row r="37" spans="1:19" ht="16">
-      <c r="A37" s="17">
+      <c r="A37" s="15">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B37" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="C37" s="17">
+      <c r="B37" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="C37" s="15">
         <v>4</v>
       </c>
-      <c r="D37" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E37" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F37" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="G37" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="H37" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I37" s="22"/>
+      <c r="D37" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="G37" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="H37" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I37" s="20"/>
       <c r="R37" s="13"/>
       <c r="S37" s="13"/>
     </row>
     <row r="38" spans="1:19" ht="16">
-      <c r="A38" s="17">
+      <c r="A38" s="15">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B38" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="C38" s="17">
+      <c r="B38" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="C38" s="15">
         <v>1</v>
       </c>
-      <c r="D38" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E38" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F38" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="G38" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="H38" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I38" s="22"/>
+      <c r="D38" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="G38" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="H38" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I38" s="20"/>
       <c r="R38" s="13"/>
       <c r="S38" s="13"/>
     </row>
     <row r="39" spans="1:19" ht="16">
-      <c r="A39" s="17">
+      <c r="A39" s="15">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B39" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="C39" s="17">
+      <c r="B39" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C39" s="15">
         <v>1</v>
       </c>
-      <c r="D39" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E39" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F39" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="G39" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="H39" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I39" s="22"/>
+      <c r="D39" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="G39" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="H39" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I39" s="20"/>
       <c r="R39" s="13"/>
       <c r="S39" s="13"/>
     </row>
     <row r="40" spans="1:19" ht="16">
-      <c r="A40" s="17">
+      <c r="A40" s="15">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B40" s="17" t="s">
+      <c r="B40" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="C40" s="15">
+        <v>3</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="E40" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="C40" s="17">
-        <v>3</v>
-      </c>
-      <c r="D40" s="17" t="s">
+      <c r="F40" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="E40" s="17" t="s">
+      <c r="G40" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="F40" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="G40" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="H40" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I40" s="22"/>
+      <c r="H40" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I40" s="20"/>
       <c r="R40" s="13"/>
       <c r="S40" s="13"/>
     </row>
     <row r="41" spans="1:19" ht="16">
-      <c r="A41" s="17">
+      <c r="A41" s="15">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B41" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="C41" s="17">
+      <c r="B41" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="C41" s="15">
         <v>1</v>
       </c>
-      <c r="D41" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E41" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F41" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="G41" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="H41" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I41" s="22"/>
+      <c r="D41" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="G41" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="H41" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I41" s="20"/>
       <c r="R41" s="13"/>
       <c r="S41" s="13"/>
     </row>
     <row r="42" spans="1:19" ht="16">
-      <c r="A42" s="17">
+      <c r="A42" s="15">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B42" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="C42" s="17">
+      <c r="B42" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="C42" s="15">
         <v>2</v>
       </c>
-      <c r="D42" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E42" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F42" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="G42" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="H42" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I42" s="22"/>
+      <c r="D42" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E42" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F42" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="G42" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="H42" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I42" s="20"/>
       <c r="R42" s="13"/>
       <c r="S42" s="13"/>
     </row>
     <row r="43" spans="1:19" ht="16">
-      <c r="A43" s="17">
+      <c r="A43" s="15">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B43" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="C43" s="17">
+      <c r="B43" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="C43" s="15">
         <v>2</v>
       </c>
-      <c r="D43" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E43" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F43" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="G43" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="H43" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I43" s="22"/>
+      <c r="D43" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F43" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="G43" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="H43" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I43" s="20"/>
       <c r="R43" s="13"/>
       <c r="S43" s="13"/>
     </row>
     <row r="44" spans="1:19" ht="16">
-      <c r="A44" s="17">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="B44" s="17" t="s">
+      <c r="A44" s="15">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="C44" s="15">
+        <v>2</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E44" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="F44" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="C44" s="17">
-        <v>2</v>
-      </c>
-      <c r="D44" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E44" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="F44" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="G44" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="H44" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I44" s="22"/>
+      <c r="G44" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="H44" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I44" s="20"/>
       <c r="R44" s="13"/>
       <c r="S44" s="13"/>
     </row>
     <row r="45" spans="1:19" ht="16">
-      <c r="A45" s="17">
+      <c r="A45" s="15">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B45" s="17" t="s">
+      <c r="B45" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="C45" s="15">
+        <v>2</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="E45" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="F45" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="C45" s="17">
-        <v>2</v>
-      </c>
-      <c r="D45" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="E45" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="F45" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="G45" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="H45" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I45" s="22"/>
+      <c r="G45" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="H45" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I45" s="20"/>
       <c r="R45" s="13"/>
       <c r="S45" s="13"/>
     </row>
     <row r="46" spans="1:19" ht="16">
-      <c r="A46" s="17">
+      <c r="A46" s="15">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B46" s="17" t="s">
+      <c r="B46" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C46" s="15">
+        <v>1</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="E46" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="F46" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="C46" s="17">
-        <v>1</v>
-      </c>
-      <c r="D46" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="E46" s="27" t="s">
+      <c r="G46" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="F46" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="G46" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="H46" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I46" s="22"/>
+      <c r="H46" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I46" s="20"/>
       <c r="R46" s="13"/>
       <c r="S46" s="13"/>
     </row>
     <row r="47" spans="1:19" ht="16">
-      <c r="A47" s="17">
+      <c r="A47" s="15">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B47" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="C47" s="17">
+      <c r="B47" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="C47" s="15">
         <v>2</v>
       </c>
-      <c r="D47" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E47" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F47" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="G47" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="H47" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I47" s="22"/>
+      <c r="D47" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E47" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F47" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="G47" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="H47" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I47" s="20"/>
       <c r="R47" s="13"/>
       <c r="S47" s="13"/>
     </row>
     <row r="48" spans="1:19" ht="16">
-      <c r="A48" s="17">
+      <c r="A48" s="15">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B48" s="17" t="s">
+      <c r="B48" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="C48" s="15">
+        <v>2</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E48" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="F48" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="C48" s="17">
-        <v>2</v>
-      </c>
-      <c r="D48" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="E48" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="F48" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="G48" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="H48" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I48" s="22"/>
+      <c r="G48" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="H48" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I48" s="20"/>
       <c r="R48" s="13"/>
       <c r="S48" s="13"/>
     </row>
     <row r="49" spans="1:19" ht="16">
-      <c r="A49" s="17">
+      <c r="A49" s="15">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B49" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="C49" s="17">
+      <c r="B49" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="C49" s="15">
         <v>2</v>
       </c>
-      <c r="D49" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E49" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F49" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="G49" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="H49" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I49" s="22"/>
+      <c r="D49" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E49" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F49" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="G49" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="H49" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I49" s="20"/>
       <c r="R49" s="13"/>
       <c r="S49" s="13"/>
     </row>
     <row r="50" spans="1:19" ht="16">
-      <c r="A50" s="17">
+      <c r="A50" s="15">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B50" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="C50" s="17">
+      <c r="B50" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="C50" s="15">
         <v>1</v>
       </c>
-      <c r="D50" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E50" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F50" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="G50" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="H50" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I50" s="22"/>
+      <c r="D50" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E50" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F50" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="G50" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="H50" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I50" s="20"/>
       <c r="R50" s="13"/>
       <c r="S50" s="13"/>
     </row>
     <row r="51" spans="1:19" ht="16">
-      <c r="A51" s="17">
+      <c r="A51" s="15">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B51" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="C51" s="17">
+      <c r="B51" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="C51" s="15">
         <v>2</v>
       </c>
-      <c r="D51" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E51" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F51" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="G51" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="H51" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I51" s="22"/>
+      <c r="D51" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E51" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F51" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="G51" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="H51" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I51" s="20"/>
       <c r="R51" s="13"/>
       <c r="S51" s="13"/>
     </row>
     <row r="52" spans="1:19" ht="16">
-      <c r="A52" s="17">
+      <c r="A52" s="15">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B52" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="C52" s="17">
+      <c r="B52" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="C52" s="15">
         <v>1</v>
       </c>
-      <c r="D52" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E52" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F52" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="G52" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="H52" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I52" s="22"/>
+      <c r="D52" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E52" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F52" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="G52" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="H52" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I52" s="20"/>
       <c r="R52" s="13"/>
       <c r="S52" s="13"/>
     </row>
     <row r="53" spans="1:19" ht="16">
-      <c r="A53" s="28"/>
+      <c r="A53" s="26"/>
       <c r="B53" s="1"/>
-      <c r="C53" s="29"/>
+      <c r="C53" s="27"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
-      <c r="I53" s="28"/>
+      <c r="I53" s="26"/>
       <c r="R53" s="13"/>
       <c r="S53" s="13"/>
     </row>
